--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleWorksheet.xlsx
@@ -418,19 +418,19 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" s="0" customFormat="1" ht="20" customHeight="1">
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
+      <x:c r="D4" s="0"/>
+      <x:c r="E4" s="0"/>
+      <x:c r="F4" s="0"/>
     </x:row>
     <x:row r="5" spans="1:6" s="0" customFormat="1" ht="20" customHeight="1">
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s"/>
+      <x:c r="D5" s="0"/>
+      <x:c r="E5" s="0"/>
+      <x:c r="F5" s="0"/>
     </x:row>
     <x:row r="6" spans="1:6" s="0" customFormat="1" ht="20" customHeight="1">
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
+      <x:c r="D6" s="0"/>
+      <x:c r="E6" s="0"/>
+      <x:c r="F6" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleWorksheet.xlsx
@@ -417,21 +417,9 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6" s="0" customFormat="1" ht="20" customHeight="1">
-      <x:c r="D4" s="0"/>
-      <x:c r="E4" s="0"/>
-      <x:c r="F4" s="0"/>
-    </x:row>
-    <x:row r="5" spans="1:6" s="0" customFormat="1" ht="20" customHeight="1">
-      <x:c r="D5" s="0"/>
-      <x:c r="E5" s="0"/>
-      <x:c r="F5" s="0"/>
-    </x:row>
-    <x:row r="6" spans="1:6" s="0" customFormat="1" ht="20" customHeight="1">
-      <x:c r="D6" s="0"/>
-      <x:c r="E6" s="0"/>
-      <x:c r="F6" s="0"/>
-    </x:row>
+    <x:row r="4" s="0" customFormat="1" ht="20" customHeight="1"/>
+    <x:row r="5" s="0" customFormat="1" ht="20" customHeight="1"/>
+    <x:row r="6" s="0" customFormat="1" ht="20" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleWorksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Test</x:t>
   </x:si>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -417,9 +417,9 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" s="0" customFormat="1" ht="20" customHeight="1"/>
-    <x:row r="5" s="0" customFormat="1" ht="20" customHeight="1"/>
-    <x:row r="6" s="0" customFormat="1" ht="20" customHeight="1"/>
+    <x:row r="4" ht="20" customHeight="1" s="0" customFormat="1"/>
+    <x:row r="5" ht="20" customHeight="1" s="0" customFormat="1"/>
+    <x:row r="6" ht="20" customHeight="1" s="0" customFormat="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleWorksheet.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleWorksheet.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Style Worksheet" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Style Worksheet" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
